--- a/Dubbo.xlsx
+++ b/Dubbo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" activeTab="6"/>
+    <workbookView windowWidth="28125" windowHeight="12690" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="工作原理" sheetId="1" r:id="rId1"/>
@@ -3333,10 +3333,36 @@
     <t>通信方式不同</t>
   </si>
   <si>
-    <t>Dubbo 使用的是 RPC 通信</t>
-  </si>
-  <si>
-    <t>Spring Cloud 使用的是 HTTP RESTFul 方式。</t>
+    <r>
+      <t>Dubbo 使用的是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> RPC 通信</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Spring Cloud 使用的是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> HTTP RESTFul 方式。</t>
+    </r>
   </si>
   <si>
     <t>组成部分不同</t>
@@ -6731,10 +6757,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -6787,46 +6813,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6847,14 +6867,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6862,17 +6882,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6885,14 +6904,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -6900,14 +6911,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -6916,8 +6927,23 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6995,7 +7021,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7007,7 +7081,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7019,109 +7129,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7133,19 +7141,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7163,7 +7165,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7175,7 +7177,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7186,39 +7212,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -7237,11 +7230,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7263,26 +7297,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7294,10 +7320,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7306,16 +7332,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7324,13 +7350,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7339,100 +7368,97 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8333,16 +8359,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>421</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>637540</xdr:colOff>
+      <xdr:colOff>447040</xdr:colOff>
       <xdr:row>447</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8359,7 +8385,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="72180450"/>
+          <a:off x="495300" y="72237600"/>
           <a:ext cx="9552940" cy="4543425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9746,8 +9772,8 @@
   <sheetPr/>
   <dimension ref="A1:O530"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="G416" sqref="G416"/>
+    <sheetView tabSelected="1" topLeftCell="A417" workbookViewId="0">
+      <selection activeCell="P424" sqref="P424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9766,12 +9792,12 @@
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>161</v>
       </c>
     </row>

--- a/Dubbo.xlsx
+++ b/Dubbo.xlsx
@@ -3334,6 +3334,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Dubbo 使用的是</t>
     </r>
     <r>
@@ -3350,6 +3357,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Spring Cloud 使用的是</t>
     </r>
     <r>
@@ -6674,10 +6688,88 @@
     <t>在使用过程中都遇到了些什么问题？</t>
   </si>
   <si>
-    <t>Dubbo 的设计目的是为了满足高并发小数据量的 rpc 调用，在大数据量下的性能表现并不好，建议使用 rmi 或 http 协议。</t>
-  </si>
-  <si>
-    <t>因为DUBBO默认用的是dubbo协议，序列化用的是hassian，适用于高并发量，小数据量的场景</t>
+    <r>
+      <t>Dubbo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的设计目的是为了</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>满足高并发小数据量的 rpc 调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大数据量下的性能表现并不好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建议使用 rmi 或 http 协议。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>因为DUBB</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O默认用的是dubbo协议，序列化用的是hassian，适用于高并发量，小数据量的场景</t>
+    </r>
   </si>
   <si>
     <t>dubbo启动解析，加载配置信息原理</t>
@@ -6813,40 +6905,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6866,8 +6927,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6882,9 +6944,47 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6895,9 +6995,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6911,39 +7034,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7021,19 +7113,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7045,13 +7137,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7069,13 +7215,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7087,43 +7269,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7135,73 +7287,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7212,6 +7304,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -7226,6 +7327,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7247,50 +7387,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7303,15 +7404,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7320,10 +7412,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7332,16 +7424,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7350,115 +7442,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9115,7 +9207,7 @@
   <sheetPr/>
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B49" sqref="B49:K49"/>
     </sheetView>
   </sheetViews>
@@ -9337,7 +9429,7 @@
   <sheetPr/>
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
@@ -9553,7 +9645,7 @@
   <sheetPr/>
   <dimension ref="A4:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19:N25"/>
     </sheetView>
   </sheetViews>
@@ -9639,8 +9731,8 @@
   <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -9772,8 +9864,8 @@
   <sheetPr/>
   <dimension ref="A1:O530"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="P424" sqref="P424"/>
+    <sheetView tabSelected="1" topLeftCell="A478" workbookViewId="0">
+      <selection activeCell="N502" sqref="N502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10969,12 +11061,12 @@
       </c>
     </row>
     <row r="402" spans="2:2">
-      <c r="B402" s="2" t="s">
+      <c r="B402" s="1" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="403" spans="2:2">
-      <c r="B403" t="s">
+      <c r="B403" s="2" t="s">
         <v>367</v>
       </c>
     </row>

--- a/Dubbo.xlsx
+++ b/Dubbo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" activeTab="6"/>
+    <workbookView windowWidth="24525" windowHeight="12240" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="工作原理" sheetId="1" r:id="rId1"/>
@@ -9864,8 +9864,8 @@
   <sheetPr/>
   <dimension ref="A1:O530"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A478" workbookViewId="0">
-      <selection activeCell="N502" sqref="N502"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Dubbo.xlsx
+++ b/Dubbo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24525" windowHeight="12240" activeTab="6"/>
+    <workbookView windowWidth="19815" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="工作原理" sheetId="1" r:id="rId1"/>
@@ -6689,6 +6689,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Dubbo</t>
     </r>
     <r>
@@ -6757,6 +6765,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>因为DUBB</t>
     </r>
     <r>
@@ -6851,8 +6866,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -6905,14 +6920,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -6920,6 +6927,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -6935,61 +7033,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7003,41 +7049,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7113,7 +7128,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7125,7 +7152,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7137,7 +7254,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7149,91 +7284,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7251,49 +7308,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7304,15 +7319,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -7331,30 +7337,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7366,6 +7348,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7387,6 +7387,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -7396,11 +7405,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7412,10 +7427,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7424,16 +7439,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7442,115 +7457,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9864,8 +9879,8 @@
   <sheetPr/>
   <dimension ref="A1:O530"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="P50" sqref="P50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11203,115 +11218,14 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="I5:I24"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="5" spans="9:9">
-      <c r="I5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="9:9">
-      <c r="I6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="9:9">
-      <c r="I7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="9:9">
-      <c r="I8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="9:9">
-      <c r="I9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="9:9">
-      <c r="I10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="9:9">
-      <c r="I11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="9:9">
-      <c r="I12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="9:9">
-      <c r="I13">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="9:9">
-      <c r="I14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="9:9">
-      <c r="I15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="9:9">
-      <c r="I16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="9:9">
-      <c r="I17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="9:9">
-      <c r="I18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="9:9">
-      <c r="I19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="9:9">
-      <c r="I20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="9:9">
-      <c r="I21">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="9:9">
-      <c r="I22">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="9:9">
-      <c r="I23">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="9:9">
-      <c r="I24">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Dubbo.xlsx
+++ b/Dubbo.xlsx
@@ -6864,9 +6864,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
@@ -6921,21 +6921,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6949,23 +6951,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6973,13 +6960,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6994,8 +6974,45 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7010,34 +7027,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7048,11 +7049,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7128,7 +7128,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7140,7 +7170,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7152,37 +7182,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7200,7 +7200,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7212,73 +7284,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7290,25 +7302,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7319,78 +7319,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -7419,6 +7347,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7427,10 +7427,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7439,16 +7439,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7457,115 +7457,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9879,8 +9879,8 @@
   <sheetPr/>
   <dimension ref="A1:O530"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="J206" workbookViewId="0">
+      <selection activeCell="L214" sqref="L214:P220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Dubbo.xlsx
+++ b/Dubbo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" activeTab="6"/>
+    <workbookView windowWidth="28125" windowHeight="12690" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="工作原理" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="393">
   <si>
     <t>dubbo 工作原理</t>
   </si>
@@ -5807,6 +5807,9 @@
       </rPr>
       <t>，以减少用户加缓存的工作量。</t>
     </r>
+  </si>
+  <si>
+    <t>开解咨询</t>
   </si>
   <si>
     <t>服务提供者接口</t>
@@ -6864,10 +6867,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -6921,37 +6924,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -6967,22 +6939,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6996,6 +6967,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -7003,7 +7013,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -7019,7 +7029,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -7028,29 +7046,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7128,7 +7131,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7140,67 +7263,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7212,19 +7287,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7236,79 +7311,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7319,47 +7322,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -7387,15 +7349,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7411,11 +7364,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7427,10 +7430,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7439,16 +7442,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7457,115 +7460,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9879,8 +9882,8 @@
   <sheetPr/>
   <dimension ref="A1:O530"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="J206" workbookViewId="0">
-      <selection activeCell="L214" sqref="L214:P220"/>
+    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
+      <selection activeCell="O267" sqref="O267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10721,14 +10724,17 @@
         <v>303</v>
       </c>
     </row>
-    <row r="285" spans="2:2">
+    <row r="285" spans="2:15">
       <c r="B285" s="2" t="s">
         <v>304</v>
       </c>
+      <c r="O285" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="286" spans="2:2">
       <c r="B286" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="287" spans="2:2">
@@ -10751,7 +10757,7 @@
     </row>
     <row r="293" spans="2:2">
       <c r="B293" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="294" spans="2:2">
@@ -10771,87 +10777,87 @@
     </row>
     <row r="304" spans="2:2">
       <c r="B304" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="309" spans="2:2">
       <c r="B309" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="315" spans="2:2">
       <c r="B315" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="316" spans="2:2">
       <c r="B316" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="317" spans="3:3">
       <c r="C317" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="329" spans="2:2">
       <c r="B329" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="330" spans="2:2">
       <c r="B330" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="331" spans="2:2">
       <c r="B331" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="332" spans="2:2">
       <c r="B332" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="333" spans="2:2">
       <c r="B333" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="334" spans="2:2">
       <c r="B334" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="337" spans="2:2">
       <c r="B337" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="340" spans="2:2">
       <c r="B340" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="341" spans="2:2">
       <c r="B341" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="342" spans="2:2">
@@ -10859,72 +10865,72 @@
     </row>
     <row r="343" spans="2:2">
       <c r="B343" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="344" spans="2:2">
       <c r="B344" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="345" spans="2:2">
       <c r="B345" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="346" spans="2:2">
       <c r="B346" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="347" spans="2:2">
       <c r="B347" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="348" spans="2:2">
       <c r="B348" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="349" spans="2:2">
       <c r="B349" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="350" spans="2:2">
       <c r="B350" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="351" spans="2:2">
       <c r="B351" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="352" spans="2:2">
       <c r="B352" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="355" spans="2:2">
       <c r="B355" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="356" spans="2:2">
       <c r="B356" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="357" spans="2:2">
       <c r="B357" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="358" spans="2:2">
@@ -10934,72 +10940,72 @@
     </row>
     <row r="359" spans="2:2">
       <c r="B359" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="367" spans="2:2">
       <c r="B367" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="368" spans="2:2">
       <c r="B368" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="369" spans="2:2">
       <c r="B369" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="370" spans="2:2">
       <c r="B370" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="371" spans="2:2">
       <c r="B371" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="372" spans="2:2">
       <c r="B372" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="373" spans="2:2">
       <c r="B373" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="377" spans="2:2">
       <c r="B377" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="378" spans="2:2">
       <c r="B378" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="379" spans="3:3">
       <c r="C379" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="380" spans="2:2">
       <c r="B380" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="381" spans="2:2">
@@ -11007,202 +11013,202 @@
     </row>
     <row r="382" spans="1:1">
       <c r="A382" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="383" spans="2:2">
       <c r="B383" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="384" spans="2:2">
       <c r="B384" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="387" spans="2:2">
       <c r="B387" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="390" spans="2:2">
       <c r="B390" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="393" spans="2:2">
       <c r="B393" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="396" spans="2:2">
       <c r="B396" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="399" spans="2:2">
       <c r="B399" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="402" spans="2:2">
       <c r="B402" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="403" spans="2:2">
       <c r="B403" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="407" spans="2:2">
       <c r="B407" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="408" spans="2:2">
       <c r="B408" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="409" spans="2:2">
       <c r="B409" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="410" spans="3:3">
       <c r="C410" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="411" spans="3:3">
       <c r="C411" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="412" spans="4:4">
       <c r="D412" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="413" spans="4:4">
       <c r="D413" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="414" spans="4:4">
       <c r="D414" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="415" spans="5:5">
       <c r="E415" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="416" spans="4:4">
       <c r="D416" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="417" spans="5:5">
       <c r="E417" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="517" spans="2:2">
       <c r="B517" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="518" spans="3:3">
       <c r="C518" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="520" spans="2:2">
       <c r="B520" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="522" spans="2:2">
       <c r="B522" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="523" spans="3:3">
       <c r="C523" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="524" spans="3:3">
       <c r="C524" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="526" spans="2:2">
       <c r="B526" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="528" spans="2:2">
       <c r="B528" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="530" spans="2:2">
       <c r="B530" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>

--- a/Dubbo.xlsx
+++ b/Dubbo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" activeTab="6"/>
+    <workbookView windowWidth="24525" windowHeight="12240" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="工作原理" sheetId="1" r:id="rId1"/>
@@ -3357,13 +3357,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Spring Cloud 使用的是</t>
     </r>
     <r>
@@ -5970,25 +5963,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;dubbo:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>reference</t>
+      <t>&lt;dubbo:reference</t>
     </r>
     <r>
       <rPr>
@@ -6867,10 +6842,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -6930,16 +6905,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6966,49 +6957,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7028,19 +6989,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7052,8 +7011,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7137,7 +7112,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7149,169 +7280,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7343,8 +7318,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7381,29 +7365,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7422,6 +7386,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7430,7 +7405,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -7442,16 +7417,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7460,115 +7435,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9882,8 +9857,8 @@
   <sheetPr/>
   <dimension ref="A1:O530"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
-      <selection activeCell="O267" sqref="O267"/>
+    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="G352" sqref="G352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10929,7 +10904,7 @@
       </c>
     </row>
     <row r="357" spans="2:2">
-      <c r="B357" s="2" t="s">
+      <c r="B357" s="1" t="s">
         <v>338</v>
       </c>
     </row>

--- a/Dubbo.xlsx
+++ b/Dubbo.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="438">
   <si>
     <t>dubbo 工作原理</t>
   </si>
@@ -3357,6 +3357,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Spring Cloud 使用的是</t>
     </r>
     <r>
@@ -5963,6 +5970,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>&lt;dubbo:reference</t>
     </r>
     <r>
@@ -6421,70 +6436,527 @@
     <t>Dubbo 可以使用 Pinpoint 和 Apache Skywalking(Incubator) 实现分布式服务追踪</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Apache Skywalking(Incubator)：专门为微服务架构和云原生架构系统而设计并且支持</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>分布式链路追踪的APM(应用性能管理)系统</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>通过</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>加载探针的方式收集应用调用链路信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，并对</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>采集的调用链路信息进行分析</t>
+    <t>Apache Skywalking(Incubator)：专门为微服务架构和云原生架构系统而设计并且支持分布式链路追踪的APM(应用性能管理)系统</t>
+  </si>
+  <si>
+    <t>通过加载探针的方式收集应用调用链路信息，并对采集的调用链路信息进行分析，生成应用间关系和服务间关系以及服务指标</t>
+  </si>
+  <si>
+    <t>Pinpoint是一个开源的 APM (应用性能管理)工具，用于基于java的大规模分布式系统</t>
+  </si>
+  <si>
+    <t>服务读写推荐的容错策略是怎样的？</t>
+  </si>
+  <si>
+    <t>读操作建议使用 Failover 失败自动切换，默认重试两次其他服务器。</t>
+  </si>
+  <si>
+    <t>写操作建议使用 Failfast 快速失败，发一次调用失败就立即报错。</t>
+  </si>
+  <si>
+    <t>Dubbo必须依赖的包有哪些？</t>
+  </si>
+  <si>
+    <t>Dubbo 必须依赖 JDK</t>
+  </si>
+  <si>
+    <t>Dubbo的管理控制台能做什么？</t>
+  </si>
+  <si>
+    <t>管理控制台主要包含：路由规则，动态配置，服务降级，访问控制，权重调整，负载均衡，等管理功能。</t>
+  </si>
+  <si>
+    <t>Dubbo 和 Dubbox 有什么区别？</t>
+  </si>
+  <si>
+    <t>Dubbox 是继 Dubbo 停止维护后，当当网基于 Dubbo 做的一个扩展项目，如加了服务可 Restful 调用，更新了开源组件等。</t>
+  </si>
+  <si>
+    <t>你还了解别的分布式框架吗？</t>
+  </si>
+  <si>
+    <t>Spring cloud、Facebook 的 Thrift、Twitter 的 Finagle 等。</t>
+  </si>
+  <si>
+    <t>Dubbo 能集成 Spring Boot 吗？</t>
+  </si>
+  <si>
+    <t>可以的</t>
+  </si>
+  <si>
+    <t>在使用过程中都遇到了些什么问题？</t>
+  </si>
+  <si>
+    <t>Dubbo 的设计目的是为了满足高并发小数据量的 rpc 调用，在大数据量下的性能表现并不好，建议使用 rmi 或 http 协议。</t>
+  </si>
+  <si>
+    <t>因为DUBBO默认用的是dubbo协议，序列化用的是hassian，适用于高并发量，小数据量的场景</t>
+  </si>
+  <si>
+    <t>dubbo启动解析，加载配置信息原理</t>
+  </si>
+  <si>
+    <t>我们配置文件中的远程暴露服务，指定注册中心的位置等</t>
+  </si>
+  <si>
+    <t>因为配置文件是一个spring的一个配置文件</t>
+  </si>
+  <si>
+    <t>spring在启动配置文件中每个标签，都会有个主接口BeanDefinitionParser（bean定义的解析器）</t>
+  </si>
+  <si>
+    <t>其中有一个DubboBeanDefinitionParser（dubbo的标签解析器）</t>
+  </si>
+  <si>
+    <t>里面有个parse（解析）方法，通过这个方法来解析标签</t>
+  </si>
+  <si>
+    <t>1 解析标签</t>
+  </si>
+  <si>
+    <t>2 获取标签的ID，标签的名字</t>
+  </si>
+  <si>
+    <t>3 通过标签的类型，比如protocol，provider，consumer等不同的类型做不同的处理</t>
+  </si>
+  <si>
+    <t>因为每个标签对应的是一个bean的class</t>
+  </si>
+  <si>
+    <t>4 保存到每个类型对应的配置容器中</t>
+  </si>
+  <si>
+    <t>在初始化的时候通过DubboNamespaceHandler构造函数来创建对应保存的配置容器</t>
+  </si>
+  <si>
+    <t>dubbo原理 -服务暴露</t>
+  </si>
+  <si>
+    <t>dubbo启动解析，加载配置信息</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DubboNamespaceHandler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spring在启动配置文件中每个标签，都会有个主接口</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BeanDefinitionParser（bean定义的解析器）</t>
+    </r>
+  </si>
+  <si>
+    <t>因为每个标签对应的是一个bean的class，比如ApplicationConfig.class，providerconfig.class</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4 保存到每个类型对应的配置容器中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DubboBeanDefinitionParser</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ServiceBean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中的afterPropertiesSet方法</t>
+    </r>
+  </si>
+  <si>
+    <t>就是把spring配置文件中dubbo的标签内容保存起来。保存在ServiceBean里面。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ServiceBean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>还实现了</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ApplicationListener&lt;ContextRefreshedEvent&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>接口，叫应用的监听器。</t>
+    </r>
+  </si>
+  <si>
+    <t>它监听的事件是ContextRefreshedEvent，当我们ioc容器整个刷新完成</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>也就是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ioc容器里面所有对象都创建完成以后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来回调方法</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onApplicationEvent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ContextRefreshedEvent event)。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>然后调用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ServiceConfig中的export方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，准备进行</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>服务暴露前的设置</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ServiceConfig</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的export方法中会先对参数做一些验证，然后</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调用doExport方法</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>doExport方法主要把</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>serviceBean中的属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>比如application,module,protocol等，</t>
+    </r>
+  </si>
+  <si>
+    <t>set到当前的AbstractInterfaceConfig</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>然后执行</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>doExportUrls方法，进行URL地址暴露</t>
+    </r>
+  </si>
+  <si>
+    <t>执行暴露的URL地址就是通过loadRegistries方法去获取注册中心的地址列表</t>
+  </si>
+  <si>
+    <t>然后开始调用doExportUrlsFor1Protocol，准备开始根据不同的协议配置去服务暴露</t>
+  </si>
+  <si>
+    <t>doExportUrlsFor1Protocol中主要实现根据URL中地址的数量来循环生成一个带有URL的包装器（通过动态代理得到invoker，生成）</t>
+  </si>
+  <si>
+    <t>调用protocol中的export，传入包装器</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Protocol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是个接口，所以需要制定实现类，dubbo通过SIP默认protocol使用的是dubbo协议，所以调用的是dubboprotocol的实现</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DubboProtocol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中的export所做的事情就是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>导入服务</t>
     </r>
     <r>
       <rPr>
@@ -6505,219 +6977,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>生成应用间关系和服务间关系以及服务指标</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Pinpoint是一个开源的 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>APM (应用性能管理)工具</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，用于基于java的大规模分布式系统</t>
-    </r>
-  </si>
-  <si>
-    <t>服务读写推荐的容错策略是怎样的？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>读</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">操作建议使用 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Failover 失败自动切换，默认重试两次其他服务器。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>写</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>操作建议使用</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Failfast 快速失败，发一次调用失败就立即报错。</t>
-    </r>
-  </si>
-  <si>
-    <t>Dubbo必须依赖的包有哪些？</t>
-  </si>
-  <si>
-    <t>Dubbo 必须依赖 JDK</t>
-  </si>
-  <si>
-    <t>Dubbo的管理控制台能做什么？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>管理控制台主要包含：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>路由规则，动态配置，服务降级，访问控制，权重调整，负载均衡，等管理功能。</t>
-    </r>
-  </si>
-  <si>
-    <t>Dubbo 和 Dubbox 有什么区别？</t>
-  </si>
-  <si>
-    <t>Dubbox 是继 Dubbo 停止维护后，当当网基于 Dubbo 做的一个扩展项目，如加了服务可 Restful 调用，更新了开源组件等。</t>
-  </si>
-  <si>
-    <t>你还了解别的分布式框架吗？</t>
-  </si>
-  <si>
-    <t>Spring cloud、Facebook 的 Thrift、Twitter 的 Finagle 等。</t>
-  </si>
-  <si>
-    <t>Dubbo 能集成 Spring Boot 吗？</t>
-  </si>
-  <si>
-    <t>可以的</t>
-  </si>
-  <si>
-    <t>在使用过程中都遇到了些什么问题？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dubbo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 的设计目的是为了</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>满足高并发小数据量的 rpc 调用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，在</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>大数据量下的性能表现并不好</t>
+      <t>生成DubboExport的容器</t>
     </r>
     <r>
       <rPr>
@@ -6738,97 +6998,162 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>建议使用 rmi 或 http 协议。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>因为DUBB</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>O默认用的是dubbo协议，序列化用的是hassian，适用于高并发量，小数据量的场景</t>
-    </r>
-  </si>
-  <si>
-    <t>dubbo启动解析，加载配置信息原理</t>
-  </si>
-  <si>
-    <t>我们配置文件中的远程暴露服务，指定注册中心的位置等</t>
-  </si>
-  <si>
-    <t>因为配置文件是一个spring的一个配置文件</t>
-  </si>
-  <si>
-    <t>spring在启动配置文件中每个标签，都会有个主接口BeanDefinitionParser（bean定义的解析器）</t>
-  </si>
-  <si>
-    <t>其中有一个DubboBeanDefinitionParser（dubbo的标签解析器）</t>
-  </si>
-  <si>
-    <t>里面有个parse方法，通过这个方法来解析标签</t>
-  </si>
-  <si>
-    <t>1 解析标签</t>
-  </si>
-  <si>
-    <t>2 获取标签的ID，标签的名字</t>
-  </si>
-  <si>
-    <t>3 通过标签的类型，比如protocol，provider，consumer等不同的类型做不同的处理</t>
-  </si>
-  <si>
-    <t>因为每个标签对应的是一个bean的class</t>
-  </si>
-  <si>
-    <t>4 保存到每个类型对应的配置容器中</t>
-  </si>
-  <si>
-    <t>在初始化的时候通过DubboNamespaceHandler构造函数来创建对应保存的配置容器</t>
-  </si>
-  <si>
-    <t>dubbo原理 -服务暴露</t>
+      <t>设置参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，最后调用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>openServer打开服务</t>
+    </r>
+  </si>
+  <si>
+    <t>openServer方法中主要是通过url去调用createService，在createServer中调用bind的方法，</t>
+  </si>
+  <si>
+    <t>在bind方法中启动nettyserver</t>
   </si>
   <si>
     <t>dubbo原理 -服务订阅</t>
   </si>
   <si>
+    <t>DubboNamespaceHandler</t>
+  </si>
+  <si>
+    <t>dubbo:reference标签对应的是ReferenceBean</t>
+  </si>
+  <si>
+    <t>ReferenceBean</t>
+  </si>
+  <si>
+    <t>ReferenceBean实现了FactoryBean接口，</t>
+  </si>
+  <si>
+    <t>reference标签会去spring容器中拿对象的实现，就会进入到ReferenceBean的getObject()方法。</t>
+  </si>
+  <si>
+    <t>ReferenceConfig</t>
+  </si>
+  <si>
+    <t>执行init方法去调用动态代理refprotocol.refer方法,调用RegistryProtocol里的doRefer</t>
+  </si>
+  <si>
+    <t>RegistryProtocol</t>
+  </si>
+  <si>
+    <t>调用subscribe方法进行订阅，然后调用DubboProtocol中的getClients</t>
+  </si>
+  <si>
+    <t>DubboProtocol</t>
+  </si>
+  <si>
+    <r>
+      <t>getClients中回去调用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HeaderExchanger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Transporters.connect</t>
+    </r>
+  </si>
+  <si>
+    <t>Transporters</t>
+  </si>
+  <si>
+    <t>接口通过SPI默认是Netty的接口实现NettyTransporter中的Connect实现方法</t>
+  </si>
+  <si>
+    <t>NettyTransporter</t>
+  </si>
+  <si>
+    <t>创建NettyClient实例，传入url和监听</t>
+  </si>
+  <si>
     <t>dubbo原理 -服务调用</t>
   </si>
   <si>
-    <t>Proxy 先到代理对象，代理对象中层层封装了各种Invoker</t>
-  </si>
-  <si>
-    <t>Invoker中是各种执行的方法</t>
-  </si>
-  <si>
-    <t>Filter 设置了本地缓存可以在这一层操作</t>
-  </si>
-  <si>
-    <t>Invoker list(invocation) Cluster 将方法和参数传入RpcInvocation的一个远程调用的对象</t>
-  </si>
-  <si>
-    <t>如果有容错设置，MockClusterInvocation集群容错的Invoick设置</t>
-  </si>
-  <si>
-    <t>如果有负载均衡设置，给Invoick设置配置的负载均衡</t>
-  </si>
-  <si>
-    <t>Filter，配置monitor,context等一些信息</t>
+    <t>InvokerInvocationHandler</t>
+  </si>
+  <si>
+    <t>调用Invoker接口</t>
+  </si>
+  <si>
+    <t>Invoker</t>
+  </si>
+  <si>
+    <t>实现MockClusterInvoker集群容错</t>
+  </si>
+  <si>
+    <t>MockClusterInvoker集群容错</t>
+  </si>
+  <si>
+    <t>1，no mock:直接把方法调用转发给实际的Invoker(实现FailoverClusterInvoker)</t>
+  </si>
+  <si>
+    <t>2，direct mock:如果配置了强制执行Mock，比如发生服务降级，那么直接按照配置执行mock之后返回：</t>
+  </si>
+  <si>
+    <t>3,fail mock:如果是其它的情况，比如只是配置的是mock=fail:return null，那么就是在正常的调用出现异常的时候按照配置执行mock：</t>
+  </si>
+  <si>
+    <t>集群容错配置好了就实现AbstractClusterInvoker的invoke方法</t>
+  </si>
+  <si>
+    <t>AbstractClusterInvoker</t>
+  </si>
+  <si>
+    <t>1，获取可以提供服务的列表，比如配置了两个版本号，就有两个服务</t>
+  </si>
+  <si>
+    <t>2，设置负载均衡的信息</t>
+  </si>
+  <si>
+    <t>3，根据不同的负载均衡策略选择不同的doInvoke实现</t>
+  </si>
+  <si>
+    <t>4，调用currentClient.request设置并发送请求，返回ResponseFuture</t>
   </si>
   <si>
     <t>最终用的Dubbo协议，所以最后用的是dubboProtocol</t>
@@ -6844,8 +7169,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -6899,6 +7224,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -6907,15 +7262,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6931,13 +7278,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6965,8 +7305,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -6981,6 +7328,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -6989,31 +7344,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7021,14 +7354,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7106,7 +7431,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7118,13 +7509,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7136,79 +7599,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7220,73 +7611,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7297,6 +7622,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -7315,20 +7675,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7348,21 +7705,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -7372,28 +7714,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7405,10 +7730,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7417,16 +7742,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7435,115 +7760,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8408,14 +8733,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>407</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>411</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>283845</xdr:colOff>
-      <xdr:row>421</xdr:row>
-      <xdr:rowOff>78740</xdr:rowOff>
+      <xdr:row>425</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8432,7 +8757,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8239125" y="69846825"/>
+          <a:off x="8239125" y="70465950"/>
           <a:ext cx="5760720" cy="2412365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8444,16 +8769,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>421</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>435</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>447040</xdr:colOff>
-      <xdr:row>447</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>285115</xdr:colOff>
+      <xdr:row>461</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8470,7 +8795,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="495300" y="72237600"/>
+          <a:off x="9248775" y="74609325"/>
           <a:ext cx="9552940" cy="4543425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8486,16 +8811,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>451</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>468</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>478</xdr:row>
-      <xdr:rowOff>155575</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>496</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8512,7 +8837,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="77323950"/>
+          <a:off x="6581775" y="80333850"/>
           <a:ext cx="8210550" cy="4784725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8528,15 +8853,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>483</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>508</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>513</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>521970</xdr:colOff>
+      <xdr:row>538</xdr:row>
       <xdr:rowOff>168910</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8561,7 +8886,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="82810350"/>
+          <a:off x="6419850" y="87096600"/>
           <a:ext cx="5760720" cy="5312410"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9855,10 +10180,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O530"/>
+  <dimension ref="A1:O516"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
-      <selection activeCell="G352" sqref="G352"/>
+    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
+      <selection activeCell="I333" sqref="I333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11131,59 +11456,319 @@
         <v>381</v>
       </c>
     </row>
-    <row r="450" spans="1:1">
-      <c r="A450" s="1" t="s">
+    <row r="421" spans="2:2">
+      <c r="B421" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="482" spans="1:1">
-      <c r="A482" s="1" t="s">
+    <row r="422" spans="2:2">
+      <c r="B422" s="2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="517" spans="2:2">
-      <c r="B517" t="s">
+    <row r="423" spans="3:3">
+      <c r="C423" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="424" spans="3:3">
+      <c r="C424" s="2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="518" spans="3:3">
-      <c r="C518" t="s">
+    <row r="425" spans="4:4">
+      <c r="D425" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="426" spans="4:4">
+      <c r="D426" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="427" spans="5:5">
+      <c r="E427" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="428" spans="5:5">
+      <c r="E428" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="429" spans="5:5">
+      <c r="E429" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="430" spans="6:6">
+      <c r="F430" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="520" spans="2:2">
-      <c r="B520" t="s">
+    <row r="431" spans="5:5">
+      <c r="E431" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="522" spans="2:2">
-      <c r="B522" t="s">
+    <row r="432" spans="6:6">
+      <c r="F432" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="435" spans="2:2">
+      <c r="B435" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="523" spans="3:3">
-      <c r="C523" t="s">
+    <row r="436" spans="3:3">
+      <c r="C436" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="524" spans="3:3">
-      <c r="C524" t="s">
+    <row r="438" spans="2:2">
+      <c r="B438" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="526" spans="2:2">
-      <c r="B526" t="s">
+    <row r="439" spans="3:3">
+      <c r="C439" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="528" spans="2:2">
-      <c r="B528" t="s">
+    <row r="440" spans="3:3">
+      <c r="C440" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="530" spans="2:2">
-      <c r="B530" t="s">
+    <row r="441" spans="3:3">
+      <c r="C441" s="2" t="s">
         <v>392</v>
+      </c>
+    </row>
+    <row r="443" spans="2:2">
+      <c r="B443" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="444" spans="3:3">
+      <c r="C444" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="445" spans="4:4">
+      <c r="D445" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="446" spans="3:3">
+      <c r="C446" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="448" spans="2:2">
+      <c r="B448" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="449" spans="3:3">
+      <c r="C449" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="451" spans="2:2">
+      <c r="B451" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="452" spans="3:3">
+      <c r="C452" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="454" spans="2:2">
+      <c r="B454" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="456" spans="2:2">
+      <c r="B456" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="457" spans="3:3">
+      <c r="C457" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="458" spans="3:3">
+      <c r="C458" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="461" spans="2:2">
+      <c r="B461" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="462" spans="3:3">
+      <c r="C462" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="463" spans="2:2">
+      <c r="B463" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="464" spans="3:3">
+      <c r="C464" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="465" spans="3:3">
+      <c r="C465" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="467" spans="2:2">
+      <c r="B467" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="468" spans="3:3">
+      <c r="C468" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="470" spans="2:2">
+      <c r="B470" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="471" spans="3:3">
+      <c r="C471" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="473" spans="2:2">
+      <c r="B473" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="474" spans="3:3">
+      <c r="C474" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="476" spans="2:2">
+      <c r="B476" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="477" spans="3:3">
+      <c r="C477" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="479" spans="2:2">
+      <c r="B479" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="480" spans="3:3">
+      <c r="C480" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="500" spans="2:2">
+      <c r="B500" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="501" spans="3:3">
+      <c r="C501" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="502" spans="2:2">
+      <c r="B502" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="503" spans="3:3">
+      <c r="C503" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="504" spans="2:2">
+      <c r="B504" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="505" spans="3:3">
+      <c r="C505" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="506" spans="3:3">
+      <c r="C506" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="507" spans="3:3">
+      <c r="C507" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="508" spans="3:3">
+      <c r="C508" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="510" spans="2:2">
+      <c r="B510" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="511" spans="3:3">
+      <c r="C511" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="512" spans="3:3">
+      <c r="C512" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="513" spans="3:3">
+      <c r="C513" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="514" spans="3:3">
+      <c r="C514" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="515" spans="3:3">
+      <c r="C515" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="516" spans="3:3">
+      <c r="C516" t="s">
+        <v>437</v>
       </c>
     </row>
   </sheetData>

--- a/Dubbo.xlsx
+++ b/Dubbo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24525" windowHeight="12240" activeTab="6"/>
+    <workbookView windowWidth="28125" windowHeight="12690" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="工作原理" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="470">
   <si>
     <t>dubbo 工作原理</t>
   </si>
@@ -5600,6 +5600,32 @@
     <t>&lt;dubbo:consumer check="false" timeout="100000" group ="${dubbo.gra.group}"/&gt;</t>
   </si>
   <si>
+    <r>
+      <t>group的作用是接口有多个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实现的使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用于区分的</t>
+    </r>
+  </si>
+  <si>
     <t>服务上线怎么兼容旧版本？</t>
   </si>
   <si>
@@ -5752,6 +5778,9 @@
     <t>&lt;dubbo:reference id="serviceVersion2" interface="com.dubbosample.service.IDubbodoSomethingService" protocol="dubbo" version="1.0.1"/&gt;</t>
   </si>
   <si>
+    <t>版本号，则是用于同一个服务的版本升级的</t>
+  </si>
+  <si>
     <t>Dubbo可以对结果进行缓存吗？</t>
   </si>
   <si>
@@ -7063,6 +7092,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>getClients中回去调用</t>
     </r>
     <r>
@@ -7160,6 +7196,96 @@
   </si>
   <si>
     <t>client 启动netty客户端，连接目标接口的服务器，发起请求</t>
+  </si>
+  <si>
+    <t>dubbo 熔断，限流，降级</t>
+  </si>
+  <si>
+    <t>consumer针对provider出现各种情况而设计的:</t>
+  </si>
+  <si>
+    <t>超时（timeout）</t>
+  </si>
+  <si>
+    <t>在接口调用过程中，consumer调用provider的时候，provider在响应的时候，有可能会慢，</t>
+  </si>
+  <si>
+    <t>如果provider 10s响应，那么consumer也会至少10s才响应。如果这种情况频度很高，</t>
+  </si>
+  <si>
+    <t>那么就会整体降低consumer端服务的性能。</t>
+  </si>
+  <si>
+    <t>所以，consumer不可能无限制地等待provider接口的返回，会设置一个时间阈值，如果超过了这个时间阈值，就不继续等待。</t>
+  </si>
+  <si>
+    <t>这个超时时间选取，一般看provider正常响应时间是多少，再追加一个buffer即可。</t>
+  </si>
+  <si>
+    <t>重试（retry）</t>
+  </si>
+  <si>
+    <t>超时时间的配置是为了保护服务，避免consumer服务因为provider 响应慢而也变得响应很慢，这样consumer可以尽量保持原有的性能。</t>
+  </si>
+  <si>
+    <t>但是也有可能provider只是偶尔抖动，那么超时后直接放弃，不做后续处理，就会导致当前请求错误，也会带来业务方面的损失。</t>
+  </si>
+  <si>
+    <t>那么，对于这种偶尔抖动，可以在超时后重试一下，重试如果正常返回了，那么这次请求就被挽救了，能够正常给前端返回数据，只不过比原来响应慢一点。</t>
+  </si>
+  <si>
+    <t>幂等(idempotent)</t>
+  </si>
+  <si>
+    <t>如果允许consumer重试，那么provider就要能够做到幂等。</t>
+  </si>
+  <si>
+    <t>即，同一个请求被consumer多次调用，对provider产生的影响(这里的影响一般是指某些写入相关的操作) 是一致的。</t>
+  </si>
+  <si>
+    <t>而且这个幂等应该是服务级别的，而不是某台机器层面的，重试调用任何一台机器，都应该做到幂等。</t>
+  </si>
+  <si>
+    <t>熔断（circuit break）</t>
+  </si>
+  <si>
+    <t>如果provider是核心路径的服务，down掉基本就没法提供服务了，那我们也没话说。</t>
+  </si>
+  <si>
+    <t>如果是一个不那么重要的服务，却因为这个服务一直响应时间长导致consumer里面的核心服务也拖慢，那么就得不偿失了。</t>
+  </si>
+  <si>
+    <t>因此就出现了熔断的逻辑，也就是，如果检查出来频繁超时，就把consumer调用provider的请求，直接短路掉，不实际调用，而是直接返回一个mock的值。</t>
+  </si>
+  <si>
+    <t>等provider服务恢复稳定之后，重新调用。</t>
+  </si>
+  <si>
+    <t>provider针对consumer出现各种情况而设计的:</t>
+  </si>
+  <si>
+    <t>限流(current limiting)</t>
+  </si>
+  <si>
+    <t>这样一个场景，provider是一个核心服务，给N个consumer提供服务，</t>
+  </si>
+  <si>
+    <t>突然某个consumer抽风，流量飙升，占用了provider大部分机器时间，导致其他可能更重要的consumer不能被正常服务。</t>
+  </si>
+  <si>
+    <t>所以，provider端，需要根据consumer的重要程度，以及平时的QPS大小，来给每个consumer设置一个流量上线，</t>
+  </si>
+  <si>
+    <t>同一时间内只会给A consumer提供N个线程支持，超过限制则等待或者直接拒绝。</t>
+  </si>
+  <si>
+    <t>资源隔离</t>
+  </si>
+  <si>
+    <t>provider可以对consumer来的流量进行限流，防止provider被拖垮。</t>
+  </si>
+  <si>
+    <t>降级服务既可以代码自动判断，也可以人工根据突发情况切换。</t>
   </si>
 </sst>
 </file>
@@ -7224,14 +7350,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7239,7 +7372,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7257,6 +7421,14 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7283,20 +7455,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -7306,7 +7464,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7314,46 +7472,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7431,13 +7557,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7455,103 +7635,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7569,24 +7653,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -7599,7 +7665,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7611,7 +7689,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7625,13 +7751,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7660,17 +7790,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7707,9 +7831,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7717,8 +7843,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7730,10 +7856,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7742,16 +7868,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7760,115 +7886,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8355,13 +8481,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>317</xdr:row>
+      <xdr:row>319</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>327</xdr:row>
+      <xdr:row>329</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8379,7 +8505,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="54349650"/>
+          <a:off x="685800" y="54692550"/>
           <a:ext cx="5838825" cy="1790700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8439,13 +8565,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>304</xdr:row>
+      <xdr:row>306</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>306</xdr:row>
+      <xdr:row>308</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8463,7 +8589,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1323975" y="52149375"/>
+          <a:off x="1323975" y="52492275"/>
           <a:ext cx="5553075" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8481,13 +8607,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>309</xdr:row>
+      <xdr:row>311</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>312</xdr:row>
+      <xdr:row>314</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8505,7 +8631,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1352550" y="53006625"/>
+          <a:off x="1352550" y="53349525"/>
           <a:ext cx="7743825" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8523,13 +8649,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>286</xdr:row>
+      <xdr:row>288</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>291</xdr:row>
+      <xdr:row>293</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8547,7 +8673,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="49034700"/>
+          <a:off x="1371600" y="49377600"/>
           <a:ext cx="2333625" cy="942975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8565,13 +8691,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>293</xdr:row>
+      <xdr:row>295</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>301</xdr:row>
+      <xdr:row>303</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8589,7 +8715,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="50234850"/>
+          <a:off x="1371600" y="50577750"/>
           <a:ext cx="6515100" cy="1514475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8607,13 +8733,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>359</xdr:row>
+      <xdr:row>361</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>364</xdr:row>
+      <xdr:row>366</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8631,7 +8757,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="61550550"/>
+          <a:off x="685800" y="61893450"/>
           <a:ext cx="4105275" cy="895350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8733,13 +8859,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>411</xdr:row>
+      <xdr:row>413</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>283845</xdr:colOff>
-      <xdr:row>425</xdr:row>
+      <xdr:row>427</xdr:row>
       <xdr:rowOff>12065</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8757,7 +8883,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8239125" y="70465950"/>
+          <a:off x="8239125" y="70808850"/>
           <a:ext cx="5760720" cy="2412365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8771,13 +8897,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>435</xdr:row>
+      <xdr:row>437</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>285115</xdr:colOff>
-      <xdr:row>461</xdr:row>
+      <xdr:row>463</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8795,7 +8921,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9248775" y="74609325"/>
+          <a:off x="9248775" y="74952225"/>
           <a:ext cx="9552940" cy="4543425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8813,13 +8939,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>468</xdr:row>
+      <xdr:row>470</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>496</xdr:row>
+      <xdr:row>498</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8837,7 +8963,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6581775" y="80333850"/>
+          <a:off x="6581775" y="80676750"/>
           <a:ext cx="8210550" cy="4784725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8855,13 +8981,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>508</xdr:row>
+      <xdr:row>510</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>521970</xdr:colOff>
-      <xdr:row>538</xdr:row>
+      <xdr:row>540</xdr:row>
       <xdr:rowOff>168910</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8886,7 +9012,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6419850" y="87096600"/>
+          <a:off x="6419850" y="87439500"/>
           <a:ext cx="5760720" cy="5312410"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10180,10 +10306,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O516"/>
+  <dimension ref="A1:O587"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="I333" sqref="I333"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="H286" sqref="H286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10939,13 +11065,13 @@
         <v>286</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
-      <c r="A265" s="1" t="s">
+    <row r="264" spans="2:2">
+      <c r="B264" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="266" spans="2:2">
-      <c r="B266" s="1" t="s">
+    <row r="266" spans="1:1">
+      <c r="A266" s="1" t="s">
         <v>288</v>
       </c>
     </row>
@@ -10954,13 +11080,13 @@
         <v>289</v>
       </c>
     </row>
-    <row r="268" spans="3:3">
-      <c r="C268" s="1" t="s">
+    <row r="268" spans="2:2">
+      <c r="B268" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="269" spans="4:4">
-      <c r="D269" t="s">
+    <row r="269" spans="3:3">
+      <c r="C269" s="1" t="s">
         <v>291</v>
       </c>
     </row>
@@ -10969,13 +11095,13 @@
         <v>292</v>
       </c>
     </row>
-    <row r="271" spans="3:3">
-      <c r="C271" s="1" t="s">
+    <row r="271" spans="4:4">
+      <c r="D271" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="272" spans="4:4">
-      <c r="D272" t="s">
+    <row r="272" spans="3:3">
+      <c r="C272" s="1" t="s">
         <v>294</v>
       </c>
     </row>
@@ -10984,18 +11110,18 @@
         <v>295</v>
       </c>
     </row>
-    <row r="274" spans="2:2">
-      <c r="B274" s="1" t="s">
+    <row r="274" spans="4:4">
+      <c r="D274" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="275" spans="3:3">
-      <c r="C275" s="1" t="s">
+    <row r="275" spans="2:2">
+      <c r="B275" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="276" spans="4:4">
-      <c r="D276" t="s">
+    <row r="276" spans="3:3">
+      <c r="C276" s="1" t="s">
         <v>298</v>
       </c>
     </row>
@@ -11004,13 +11130,13 @@
         <v>299</v>
       </c>
     </row>
-    <row r="278" spans="3:3">
-      <c r="C278" s="1" t="s">
+    <row r="278" spans="4:4">
+      <c r="D278" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="279" spans="4:4">
-      <c r="D279" t="s">
+    <row r="279" spans="3:3">
+      <c r="C279" s="1" t="s">
         <v>301</v>
       </c>
     </row>
@@ -11019,29 +11145,36 @@
         <v>302</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
-      <c r="A284" s="1" t="s">
+    <row r="281" spans="4:4">
+      <c r="D281" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="285" spans="2:15">
-      <c r="B285" s="2" t="s">
+    <row r="283" spans="2:2">
+      <c r="B283" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="O285" t="s">
+    </row>
+    <row r="284" spans="2:2">
+      <c r="B284" s="1"/>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="286" spans="2:2">
-      <c r="B286" s="1" t="s">
+    <row r="287" spans="2:15">
+      <c r="B287" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="287" spans="2:2">
-      <c r="B287" s="2"/>
+      <c r="O287" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="288" spans="2:2">
-      <c r="B288" s="2"/>
+      <c r="B288" s="1" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="289" spans="2:2">
       <c r="B289" s="2"/>
@@ -11056,15 +11189,15 @@
       <c r="B292" s="2"/>
     </row>
     <row r="293" spans="2:2">
-      <c r="B293" s="2" t="s">
-        <v>307</v>
-      </c>
+      <c r="B293" s="2"/>
     </row>
     <row r="294" spans="2:2">
       <c r="B294" s="2"/>
     </row>
     <row r="295" spans="2:2">
-      <c r="B295" s="2"/>
+      <c r="B295" s="2" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="296" spans="2:2">
       <c r="B296" s="2"/>
@@ -11075,43 +11208,39 @@
     <row r="298" spans="2:2">
       <c r="B298" s="2"/>
     </row>
-    <row r="304" spans="2:2">
-      <c r="B304" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="309" spans="2:2">
-      <c r="B309" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1">
-      <c r="A314" s="1" t="s">
+    <row r="299" spans="2:2">
+      <c r="B299" s="2"/>
+    </row>
+    <row r="300" spans="2:2">
+      <c r="B300" s="2"/>
+    </row>
+    <row r="306" spans="2:2">
+      <c r="B306" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="315" spans="2:2">
-      <c r="B315" t="s">
+    <row r="311" spans="2:2">
+      <c r="B311" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="316" spans="2:2">
-      <c r="B316" s="2" t="s">
+    <row r="316" spans="1:1">
+      <c r="A316" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="317" spans="3:3">
-      <c r="C317" t="s">
+    <row r="317" spans="2:2">
+      <c r="B317" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="329" spans="2:2">
-      <c r="B329" t="s">
+    <row r="318" spans="2:2">
+      <c r="B318" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="330" spans="2:2">
-      <c r="B330" t="s">
+    <row r="319" spans="3:3">
+      <c r="C319" t="s">
         <v>315</v>
       </c>
     </row>
@@ -11126,7 +11255,7 @@
       </c>
     </row>
     <row r="333" spans="2:2">
-      <c r="B333" s="2" t="s">
+      <c r="B333" t="s">
         <v>318</v>
       </c>
     </row>
@@ -11135,43 +11264,43 @@
         <v>319</v>
       </c>
     </row>
-    <row r="336" spans="1:1">
-      <c r="A336" s="1" t="s">
+    <row r="335" spans="2:2">
+      <c r="B335" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="337" spans="2:2">
-      <c r="B337" t="s">
+    <row r="336" spans="2:2">
+      <c r="B336" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="339" spans="1:1">
-      <c r="A339" s="1" t="s">
+    <row r="338" spans="1:1">
+      <c r="A338" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="340" spans="2:2">
-      <c r="B340" t="s">
+    <row r="339" spans="2:2">
+      <c r="B339" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="341" spans="2:2">
-      <c r="B341" s="2" t="s">
+    <row r="341" spans="1:1">
+      <c r="A341" s="1" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="342" spans="2:2">
-      <c r="B342" s="2"/>
+      <c r="B342" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="343" spans="2:2">
       <c r="B343" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="344" spans="2:2">
-      <c r="B344" s="2" t="s">
-        <v>326</v>
-      </c>
+      <c r="B344" s="2"/>
     </row>
     <row r="345" spans="2:2">
       <c r="B345" s="2" t="s">
@@ -11204,57 +11333,57 @@
       </c>
     </row>
     <row r="351" spans="2:2">
-      <c r="B351" s="4" t="s">
+      <c r="B351" s="2" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="352" spans="2:2">
-      <c r="B352" t="s">
+      <c r="B352" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="354" spans="1:1">
-      <c r="A354" s="1" t="s">
+    <row r="353" spans="2:2">
+      <c r="B353" s="4" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="355" spans="2:2">
-      <c r="B355" t="s">
+    <row r="354" spans="2:2">
+      <c r="B354" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="356" spans="2:2">
-      <c r="B356" t="s">
+    <row r="356" spans="1:1">
+      <c r="A356" s="1" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="357" spans="2:2">
-      <c r="B357" s="1" t="s">
+      <c r="B357" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="358" spans="2:2">
       <c r="B358" t="s">
-        <v>127</v>
+        <v>339</v>
       </c>
     </row>
     <row r="359" spans="2:2">
       <c r="B359" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1">
-      <c r="A366" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="367" spans="2:2">
-      <c r="B367" s="2" t="s">
+    <row r="360" spans="2:2">
+      <c r="B360" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="361" spans="2:2">
+      <c r="B361" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="368" spans="2:2">
-      <c r="B368" s="2" t="s">
+    <row r="368" spans="1:1">
+      <c r="A368" s="1" t="s">
         <v>342</v>
       </c>
     </row>
@@ -11283,23 +11412,23 @@
         <v>347</v>
       </c>
     </row>
-    <row r="376" spans="1:1">
-      <c r="A376" s="1" t="s">
+    <row r="374" spans="2:2">
+      <c r="B374" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="377" spans="2:2">
-      <c r="B377" t="s">
+    <row r="375" spans="2:2">
+      <c r="B375" s="2" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="378" spans="2:2">
-      <c r="B378" s="2" t="s">
+    <row r="378" spans="1:1">
+      <c r="A378" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="379" spans="3:3">
-      <c r="C379" s="2" t="s">
+    <row r="379" spans="2:2">
+      <c r="B379" t="s">
         <v>351</v>
       </c>
     </row>
@@ -11308,101 +11437,101 @@
         <v>352</v>
       </c>
     </row>
-    <row r="381" spans="2:2">
-      <c r="B381" s="2"/>
-    </row>
-    <row r="382" spans="1:1">
-      <c r="A382" s="1" t="s">
+    <row r="381" spans="3:3">
+      <c r="C381" s="2" t="s">
         <v>353</v>
       </c>
     </row>
+    <row r="382" spans="2:2">
+      <c r="B382" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
     <row r="383" spans="2:2">
-      <c r="B383" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="384" spans="2:2">
-      <c r="B384" s="1" t="s">
+      <c r="B383" s="2"/>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="386" spans="1:1">
-      <c r="A386" s="1" t="s">
+    <row r="385" spans="2:2">
+      <c r="B385" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="387" spans="2:2">
-      <c r="B387" t="s">
+    <row r="386" spans="2:2">
+      <c r="B386" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="389" spans="1:1">
-      <c r="A389" s="1" t="s">
+    <row r="388" spans="1:1">
+      <c r="A388" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="390" spans="2:2">
-      <c r="B390" s="2" t="s">
+    <row r="389" spans="2:2">
+      <c r="B389" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="392" spans="1:1">
-      <c r="A392" s="1" t="s">
+    <row r="391" spans="1:1">
+      <c r="A391" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="393" spans="2:2">
-      <c r="B393" t="s">
+    <row r="392" spans="2:2">
+      <c r="B392" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="395" spans="1:1">
-      <c r="A395" s="1" t="s">
+    <row r="394" spans="1:1">
+      <c r="A394" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="396" spans="2:2">
-      <c r="B396" t="s">
+    <row r="395" spans="2:2">
+      <c r="B395" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="398" spans="1:1">
-      <c r="A398" s="1" t="s">
+    <row r="397" spans="1:1">
+      <c r="A397" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="399" spans="2:2">
-      <c r="B399" t="s">
+    <row r="398" spans="2:2">
+      <c r="B398" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="401" spans="1:1">
-      <c r="A401" s="1" t="s">
+    <row r="400" spans="1:1">
+      <c r="A400" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="402" spans="2:2">
-      <c r="B402" s="1" t="s">
+    <row r="401" spans="2:2">
+      <c r="B401" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="403" spans="2:2">
-      <c r="B403" s="2" t="s">
+    <row r="403" spans="1:1">
+      <c r="A403" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="406" spans="1:1">
-      <c r="A406" s="1" t="s">
+    <row r="404" spans="2:2">
+      <c r="B404" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="407" spans="2:2">
-      <c r="B407" t="s">
+    <row r="405" spans="2:2">
+      <c r="B405" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="408" spans="2:2">
-      <c r="B408" t="s">
+    <row r="408" spans="1:1">
+      <c r="A408" s="1" t="s">
         <v>371</v>
       </c>
     </row>
@@ -11411,23 +11540,23 @@
         <v>372</v>
       </c>
     </row>
-    <row r="410" spans="3:3">
-      <c r="C410" s="2" t="s">
+    <row r="410" spans="2:2">
+      <c r="B410" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="411" spans="3:3">
-      <c r="C411" t="s">
+    <row r="411" spans="2:2">
+      <c r="B411" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="412" spans="4:4">
-      <c r="D412" t="s">
+    <row r="412" spans="3:3">
+      <c r="C412" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="413" spans="4:4">
-      <c r="D413" t="s">
+    <row r="413" spans="3:3">
+      <c r="C413" t="s">
         <v>376</v>
       </c>
     </row>
@@ -11436,8 +11565,8 @@
         <v>377</v>
       </c>
     </row>
-    <row r="415" spans="5:5">
-      <c r="E415" t="s">
+    <row r="415" spans="4:4">
+      <c r="D415" t="s">
         <v>378</v>
       </c>
     </row>
@@ -11451,48 +11580,48 @@
         <v>380</v>
       </c>
     </row>
-    <row r="420" spans="1:1">
-      <c r="A420" s="1" t="s">
+    <row r="418" spans="4:4">
+      <c r="D418" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="421" spans="2:2">
-      <c r="B421" s="1" t="s">
+    <row r="419" spans="5:5">
+      <c r="E419" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="422" spans="2:2">
-      <c r="B422" s="2" t="s">
+    <row r="422" spans="1:1">
+      <c r="A422" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="423" spans="3:3">
-      <c r="C423" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="424" spans="3:3">
-      <c r="C424" s="2" t="s">
+    <row r="423" spans="2:2">
+      <c r="B423" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="425" spans="4:4">
-      <c r="D425" t="s">
+    <row r="424" spans="2:2">
+      <c r="B424" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="425" spans="3:3">
+      <c r="C425" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="426" spans="4:4">
-      <c r="D426" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="427" spans="5:5">
-      <c r="E427" t="s">
+    <row r="426" spans="3:3">
+      <c r="C426" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="427" spans="4:4">
+      <c r="D427" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="428" spans="5:5">
-      <c r="E428" t="s">
+    <row r="428" spans="4:4">
+      <c r="D428" t="s">
         <v>376</v>
       </c>
     </row>
@@ -11501,63 +11630,63 @@
         <v>377</v>
       </c>
     </row>
-    <row r="430" spans="6:6">
-      <c r="F430" t="s">
-        <v>385</v>
+    <row r="430" spans="5:5">
+      <c r="E430" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="431" spans="5:5">
-      <c r="E431" s="2" t="s">
-        <v>386</v>
+      <c r="E431" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="432" spans="6:6">
       <c r="F432" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="435" spans="2:2">
-      <c r="B435" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="436" spans="3:3">
-      <c r="C436" t="s">
+    <row r="433" spans="5:5">
+      <c r="E433" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="438" spans="2:2">
-      <c r="B438" s="1" t="s">
+    <row r="434" spans="6:6">
+      <c r="F434" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="437" spans="2:2">
+      <c r="B437" s="2" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="439" spans="3:3">
-      <c r="C439" t="s">
+    <row r="438" spans="3:3">
+      <c r="C438" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="440" spans="3:3">
-      <c r="C440" s="2" t="s">
+    <row r="440" spans="2:2">
+      <c r="B440" s="1" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="441" spans="3:3">
-      <c r="C441" s="2" t="s">
+      <c r="C441" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="443" spans="2:2">
-      <c r="B443" s="1" t="s">
+    <row r="442" spans="3:3">
+      <c r="C442" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="444" spans="3:3">
-      <c r="C444" s="2" t="s">
+    <row r="443" spans="3:3">
+      <c r="C443" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="445" spans="4:4">
-      <c r="D445" s="1" t="s">
+    <row r="445" spans="2:2">
+      <c r="B445" s="1" t="s">
         <v>395</v>
       </c>
     </row>
@@ -11566,58 +11695,58 @@
         <v>396</v>
       </c>
     </row>
-    <row r="448" spans="2:2">
-      <c r="B448" t="s">
+    <row r="447" spans="4:4">
+      <c r="D447" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="449" spans="3:3">
-      <c r="C449" t="s">
+    <row r="448" spans="3:3">
+      <c r="C448" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="451" spans="2:2">
-      <c r="B451" t="s">
+    <row r="450" spans="2:2">
+      <c r="B450" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="452" spans="3:3">
-      <c r="C452" t="s">
+    <row r="451" spans="3:3">
+      <c r="C451" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="454" spans="2:2">
-      <c r="B454" s="1" t="s">
+    <row r="453" spans="2:2">
+      <c r="B453" t="s">
         <v>401</v>
+      </c>
+    </row>
+    <row r="454" spans="3:3">
+      <c r="C454" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="456" spans="2:2">
       <c r="B456" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="457" spans="3:3">
-      <c r="C457" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="458" spans="3:3">
-      <c r="C458" t="s">
+    <row r="458" spans="2:2">
+      <c r="B458" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="460" spans="1:1">
-      <c r="A460" s="1" t="s">
+    <row r="459" spans="3:3">
+      <c r="C459" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="461" spans="2:2">
-      <c r="B461" s="1" t="s">
+    <row r="460" spans="3:3">
+      <c r="C460" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="462" spans="3:3">
-      <c r="C462" t="s">
+    <row r="462" spans="1:1">
+      <c r="A462" s="1" t="s">
         <v>407</v>
       </c>
     </row>
@@ -11631,73 +11760,73 @@
         <v>409</v>
       </c>
     </row>
-    <row r="465" spans="3:3">
-      <c r="C465" t="s">
+    <row r="465" spans="2:2">
+      <c r="B465" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="467" spans="2:2">
-      <c r="B467" s="1" t="s">
+    <row r="466" spans="3:3">
+      <c r="C466" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="468" spans="3:3">
-      <c r="C468" t="s">
+    <row r="467" spans="3:3">
+      <c r="C467" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="470" spans="2:2">
-      <c r="B470" s="1" t="s">
+    <row r="469" spans="2:2">
+      <c r="B469" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="471" spans="3:3">
-      <c r="C471" t="s">
+    <row r="470" spans="3:3">
+      <c r="C470" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="473" spans="2:2">
-      <c r="B473" s="1" t="s">
+    <row r="472" spans="2:2">
+      <c r="B472" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="474" spans="3:3">
-      <c r="C474" s="2" t="s">
+    <row r="473" spans="3:3">
+      <c r="C473" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="476" spans="2:2">
-      <c r="B476" s="1" t="s">
+    <row r="475" spans="2:2">
+      <c r="B475" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="477" spans="3:3">
-      <c r="C477" t="s">
+    <row r="476" spans="3:3">
+      <c r="C476" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="479" spans="2:2">
-      <c r="B479" s="1" t="s">
+    <row r="478" spans="2:2">
+      <c r="B478" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="480" spans="3:3">
-      <c r="C480" t="s">
+    <row r="479" spans="3:3">
+      <c r="C479" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="498" spans="1:1">
-      <c r="A498" s="1" t="s">
+    <row r="481" spans="2:2">
+      <c r="B481" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="500" spans="2:2">
-      <c r="B500" s="1" t="s">
+    <row r="482" spans="3:3">
+      <c r="C482" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="501" spans="3:3">
-      <c r="C501" t="s">
+    <row r="500" spans="1:1">
+      <c r="A500" s="1" t="s">
         <v>423</v>
       </c>
     </row>
@@ -11721,8 +11850,8 @@
         <v>427</v>
       </c>
     </row>
-    <row r="506" spans="3:3">
-      <c r="C506" t="s">
+    <row r="506" spans="2:2">
+      <c r="B506" s="1" t="s">
         <v>428</v>
       </c>
     </row>
@@ -11736,18 +11865,18 @@
         <v>430</v>
       </c>
     </row>
-    <row r="510" spans="2:2">
-      <c r="B510" s="1" t="s">
+    <row r="509" spans="3:3">
+      <c r="C509" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="511" spans="3:3">
-      <c r="C511" t="s">
+    <row r="510" spans="3:3">
+      <c r="C510" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="512" spans="3:3">
-      <c r="C512" t="s">
+    <row r="512" spans="2:2">
+      <c r="B512" s="1" t="s">
         <v>433</v>
       </c>
     </row>
@@ -11769,6 +11898,171 @@
     <row r="516" spans="3:3">
       <c r="C516" t="s">
         <v>437</v>
+      </c>
+    </row>
+    <row r="517" spans="3:3">
+      <c r="C517" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="518" spans="3:3">
+      <c r="C518" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="546" spans="2:2">
+      <c r="B546" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="547" spans="2:2">
+      <c r="B547" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="548" spans="3:3">
+      <c r="C548" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="549" spans="4:4">
+      <c r="D549" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="550" spans="4:4">
+      <c r="D550" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="552" spans="4:4">
+      <c r="D552" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="554" spans="4:4">
+      <c r="D554" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="556" spans="2:2">
+      <c r="B556" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="557" spans="3:3">
+      <c r="C557" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="559" spans="3:3">
+      <c r="C559" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="561" spans="3:3">
+      <c r="C561" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="563" spans="2:2">
+      <c r="B563" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="564" spans="3:3">
+      <c r="C564" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="565" spans="3:3">
+      <c r="C565" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="566" spans="3:3">
+      <c r="C566" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="568" spans="2:2">
+      <c r="B568" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="569" spans="3:3">
+      <c r="C569" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="570" spans="4:4">
+      <c r="D570" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="572" spans="3:3">
+      <c r="C572" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="573" spans="4:4">
+      <c r="D573" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="575" spans="2:2">
+      <c r="B575" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="576" spans="2:2">
+      <c r="B576" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="577" spans="3:3">
+      <c r="C577" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="578" spans="4:4">
+      <c r="D578" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="580" spans="3:3">
+      <c r="C580" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="581" spans="4:4">
+      <c r="D581" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="583" spans="3:3">
+      <c r="C583" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="584" spans="4:4">
+      <c r="D584" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="586" spans="3:3">
+      <c r="C586" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="587" spans="4:4">
+      <c r="D587" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>

--- a/Dubbo.xlsx
+++ b/Dubbo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" activeTab="6"/>
+    <workbookView windowWidth="19815" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="工作原理" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="475">
   <si>
     <t>dubbo 工作原理</t>
   </si>
@@ -3382,6 +3382,24 @@
     <t>组成部分不同</t>
   </si>
   <si>
+    <t>spring cloud 的核心组件有哪些？</t>
+  </si>
+  <si>
+    <t>Eureka：服务注册于发现。</t>
+  </si>
+  <si>
+    <t>Feign：基于动态代理机制，根据注解和选择的机器，拼接请求 url 地址，发起请求。</t>
+  </si>
+  <si>
+    <t>Ribbon：实现负载均衡，从一个服务的多台机器中选择一台。</t>
+  </si>
+  <si>
+    <t>Hystrix：提供线程池，不同的服务走不同的线程池，实现了不同服务调用的隔离，避免了服务雪崩的问题。</t>
+  </si>
+  <si>
+    <t>Zuul：网关管理，由 Zuul 网关转发请求给对应的服务。</t>
+  </si>
+  <si>
     <t>dubbo都支持什么协议，推荐用哪种？</t>
   </si>
   <si>
@@ -5601,6 +5619,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>group的作用是接口有多个</t>
     </r>
     <r>
@@ -5836,9 +5861,6 @@
       </rPr>
       <t>，以减少用户加缓存的工作量。</t>
     </r>
-  </si>
-  <si>
-    <t>开解咨询</t>
   </si>
   <si>
     <t>服务提供者接口</t>
@@ -7293,9 +7315,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
@@ -7356,15 +7378,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7375,6 +7405,14 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7403,38 +7441,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7455,9 +7477,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7478,10 +7499,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7557,7 +7579,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7569,13 +7729,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7587,157 +7759,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7748,6 +7770,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -7793,23 +7830,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7843,8 +7865,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7856,10 +7878,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7868,16 +7890,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7886,112 +7908,112 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10308,8 +10330,8 @@
   <sheetPr/>
   <dimension ref="A1:O587"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="H286" sqref="H286"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="I282" sqref="I282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10342,195 +10364,225 @@
         <v>162</v>
       </c>
     </row>
+    <row r="8" spans="11:11">
+      <c r="K8" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="11:11">
+      <c r="K9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="11:11">
+      <c r="K10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="11:11">
+      <c r="K11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="11:11">
+      <c r="K12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="11:11">
+      <c r="K13" t="s">
+        <v>168</v>
+      </c>
+    </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="2" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="2"/>
       <c r="C53" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="2"/>
       <c r="C67" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" s="2"/>
       <c r="C68" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="2"/>
       <c r="D69" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" s="2"/>
       <c r="C71" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72" spans="2:4">
       <c r="B72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="2:4">
       <c r="B73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="74" spans="2:2">
@@ -10538,27 +10590,27 @@
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80" spans="2:2">
@@ -10566,7 +10618,7 @@
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82" spans="2:2">
@@ -10640,37 +10692,37 @@
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="115" spans="15:15">
@@ -10678,37 +10730,37 @@
     </row>
     <row r="116" spans="2:15">
       <c r="B116" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="O116" s="2"/>
     </row>
     <row r="117" spans="3:15">
       <c r="C117" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="O117" s="2"/>
     </row>
     <row r="118" spans="3:15">
       <c r="C118" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="O118" s="2"/>
     </row>
     <row r="119" spans="2:15">
       <c r="B119" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="O119" s="2"/>
     </row>
     <row r="120" spans="3:15">
       <c r="C120" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="O120" s="2"/>
     </row>
     <row r="121" spans="3:15">
       <c r="C121" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="O121" s="2"/>
     </row>
@@ -10717,442 +10769,442 @@
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="172" spans="2:5">
       <c r="B172" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="173" spans="2:5">
       <c r="B173" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="174" spans="2:5">
       <c r="B174" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="175" spans="2:5">
       <c r="B175" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="176" spans="2:5">
       <c r="B176" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="177" spans="2:5">
       <c r="B177" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="178" spans="2:5">
       <c r="B178" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="179" spans="2:5">
       <c r="B179" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="180" spans="2:5">
       <c r="B180" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="181" spans="2:5">
       <c r="B181" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="182" spans="2:5">
       <c r="B182" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="183" spans="2:5">
       <c r="B183" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="184" spans="2:5">
       <c r="B184" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="185" spans="2:5">
       <c r="B185" s="3" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E185" s="1"/>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="189" spans="2:2">
       <c r="B189" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="190" spans="2:2">
       <c r="B190" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" s="2" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" s="2" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="199" spans="2:2">
       <c r="B199" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="201" spans="3:3">
       <c r="C201" s="1" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="202" spans="3:3">
       <c r="C202" s="1" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="203" spans="3:3">
       <c r="C203" s="2" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="204" spans="4:4">
       <c r="D204" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="205" spans="3:3">
       <c r="C205" s="2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="206" spans="3:3">
       <c r="C206" s="2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="207" spans="4:4">
       <c r="D207" s="2" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="208" spans="3:3">
       <c r="C208" s="2" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="209" spans="3:3">
       <c r="C209" s="2" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="212" spans="2:2">
       <c r="B212" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="248" spans="2:2">
       <c r="B248" s="2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="251" spans="2:2">
       <c r="B251" s="2" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="257" spans="2:2">
       <c r="B257" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="258" spans="2:2">
       <c r="B258" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="259" spans="3:3">
       <c r="C259" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="260" spans="2:2">
       <c r="B260" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="261" spans="3:3">
       <c r="C261" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="262" spans="2:2">
       <c r="B262" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="263" spans="3:3">
       <c r="C263" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="264" spans="2:2">
       <c r="B264" s="2" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="1" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="267" spans="2:2">
       <c r="B267" s="1" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="268" spans="2:2">
       <c r="B268" s="1" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="269" spans="3:3">
       <c r="C269" s="1" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="270" spans="4:4">
       <c r="D270" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="271" spans="4:4">
       <c r="D271" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="272" spans="3:3">
       <c r="C272" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="273" spans="4:4">
       <c r="D273" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="274" spans="4:4">
       <c r="D274" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="275" spans="2:2">
       <c r="B275" s="1" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="276" spans="3:3">
       <c r="C276" s="1" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="277" spans="4:4">
       <c r="D277" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="278" spans="4:4">
       <c r="D278" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="279" spans="3:3">
       <c r="C279" s="1" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="280" spans="4:4">
       <c r="D280" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="281" spans="4:4">
       <c r="D281" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="283" spans="2:2">
       <c r="B283" s="1" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="284" spans="2:2">
@@ -11160,20 +11212,17 @@
     </row>
     <row r="286" spans="1:1">
       <c r="A286" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="287" spans="2:15">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2">
       <c r="B287" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="O287" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="288" spans="2:2">
       <c r="B288" s="1" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="289" spans="2:2">
@@ -11196,7 +11245,7 @@
     </row>
     <row r="295" spans="2:2">
       <c r="B295" s="2" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="296" spans="2:2">
@@ -11216,87 +11265,87 @@
     </row>
     <row r="306" spans="2:2">
       <c r="B306" s="1" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="311" spans="2:2">
       <c r="B311" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="317" spans="2:2">
       <c r="B317" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="318" spans="2:2">
       <c r="B318" s="2" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="319" spans="3:3">
       <c r="C319" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="331" spans="2:2">
       <c r="B331" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="332" spans="2:2">
       <c r="B332" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="333" spans="2:2">
       <c r="B333" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="334" spans="2:2">
       <c r="B334" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="335" spans="2:2">
       <c r="B335" s="2" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="336" spans="2:2">
       <c r="B336" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" s="1" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="339" spans="2:2">
       <c r="B339" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" s="1" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="342" spans="2:2">
       <c r="B342" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="343" spans="2:2">
       <c r="B343" s="2" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="344" spans="2:2">
@@ -11304,72 +11353,72 @@
     </row>
     <row r="345" spans="2:2">
       <c r="B345" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="346" spans="2:2">
       <c r="B346" s="2" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="347" spans="2:2">
       <c r="B347" s="2" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="348" spans="2:2">
       <c r="B348" s="2" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="349" spans="2:2">
       <c r="B349" s="2" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="350" spans="2:2">
       <c r="B350" s="2" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="351" spans="2:2">
       <c r="B351" s="2" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="352" spans="2:2">
       <c r="B352" s="2" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="353" spans="2:2">
       <c r="B353" s="4" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="354" spans="2:2">
       <c r="B354" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" s="1" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="357" spans="2:2">
       <c r="B357" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="358" spans="2:2">
       <c r="B358" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="359" spans="2:2">
       <c r="B359" s="1" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="360" spans="2:2">
@@ -11379,72 +11428,72 @@
     </row>
     <row r="361" spans="2:2">
       <c r="B361" s="1" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" s="1" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="369" spans="2:2">
       <c r="B369" s="2" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="370" spans="2:2">
       <c r="B370" s="2" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="371" spans="2:2">
       <c r="B371" s="2" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="372" spans="2:2">
       <c r="B372" s="2" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="373" spans="2:2">
       <c r="B373" s="2" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="374" spans="2:2">
       <c r="B374" s="2" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="375" spans="2:2">
       <c r="B375" s="2" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" s="1" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="379" spans="2:2">
       <c r="B379" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="380" spans="2:2">
       <c r="B380" s="2" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="381" spans="3:3">
       <c r="C381" s="2" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="382" spans="2:2">
       <c r="B382" s="2" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="383" spans="2:2">
@@ -11452,607 +11501,607 @@
     </row>
     <row r="384" spans="1:1">
       <c r="A384" s="1" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="385" spans="2:2">
       <c r="B385" s="1" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="386" spans="2:2">
       <c r="B386" s="1" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" s="1" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="389" spans="2:2">
       <c r="B389" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" s="1" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="392" spans="2:2">
       <c r="B392" s="2" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" s="1" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="395" spans="2:2">
       <c r="B395" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" s="1" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="398" spans="2:2">
       <c r="B398" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" s="1" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="401" spans="2:2">
       <c r="B401" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" s="1" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="404" spans="2:2">
       <c r="B404" s="1" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="405" spans="2:2">
       <c r="B405" s="2" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" s="1" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="409" spans="2:2">
       <c r="B409" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="410" spans="2:2">
       <c r="B410" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="411" spans="2:2">
       <c r="B411" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="412" spans="3:3">
       <c r="C412" s="2" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="413" spans="3:3">
       <c r="C413" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="414" spans="4:4">
       <c r="D414" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="415" spans="4:4">
       <c r="D415" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="416" spans="4:4">
       <c r="D416" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="417" spans="5:5">
       <c r="E417" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="418" spans="4:4">
       <c r="D418" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="419" spans="5:5">
       <c r="E419" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" s="1" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="423" spans="2:2">
       <c r="B423" s="1" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="424" spans="2:2">
       <c r="B424" s="2" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="425" spans="3:3">
       <c r="C425" s="2" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="426" spans="3:3">
       <c r="C426" s="2" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="427" spans="4:4">
       <c r="D427" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="428" spans="4:4">
       <c r="D428" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="429" spans="5:5">
       <c r="E429" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="430" spans="5:5">
       <c r="E430" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="431" spans="5:5">
       <c r="E431" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="432" spans="6:6">
       <c r="F432" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="433" spans="5:5">
       <c r="E433" s="2" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="434" spans="6:6">
       <c r="F434" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="437" spans="2:2">
       <c r="B437" s="2" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="438" spans="3:3">
       <c r="C438" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="440" spans="2:2">
       <c r="B440" s="1" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="441" spans="3:3">
       <c r="C441" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row r="442" spans="3:3">
       <c r="C442" s="2" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="443" spans="3:3">
       <c r="C443" s="2" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="445" spans="2:2">
       <c r="B445" s="1" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="446" spans="3:3">
       <c r="C446" s="2" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
     <row r="447" spans="4:4">
       <c r="D447" s="1" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="448" spans="3:3">
       <c r="C448" s="2" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="450" spans="2:2">
       <c r="B450" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="451" spans="3:3">
       <c r="C451" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="453" spans="2:2">
       <c r="B453" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="454" spans="3:3">
       <c r="C454" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="456" spans="2:2">
       <c r="B456" s="1" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="458" spans="2:2">
       <c r="B458" s="1" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="459" spans="3:3">
       <c r="C459" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="460" spans="3:3">
       <c r="C460" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" s="1" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="463" spans="2:2">
       <c r="B463" s="1" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="464" spans="3:3">
       <c r="C464" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="465" spans="2:2">
       <c r="B465" s="1" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="466" spans="3:3">
       <c r="C466" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="467" spans="3:3">
       <c r="C467" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="469" spans="2:2">
       <c r="B469" s="1" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="470" spans="3:3">
       <c r="C470" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="472" spans="2:2">
       <c r="B472" s="1" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="473" spans="3:3">
       <c r="C473" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="475" spans="2:2">
       <c r="B475" s="1" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="476" spans="3:3">
       <c r="C476" s="2" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="478" spans="2:2">
       <c r="B478" s="1" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="479" spans="3:3">
       <c r="C479" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="481" spans="2:2">
       <c r="B481" s="1" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="482" spans="3:3">
       <c r="C482" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="502" spans="2:2">
       <c r="B502" s="1" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="503" spans="3:3">
       <c r="C503" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="504" spans="2:2">
       <c r="B504" s="1" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="505" spans="3:3">
       <c r="C505" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="506" spans="2:2">
       <c r="B506" s="1" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="507" spans="3:3">
       <c r="C507" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="508" spans="3:3">
       <c r="C508" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="509" spans="3:3">
       <c r="C509" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="510" spans="3:3">
       <c r="C510" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="512" spans="2:2">
       <c r="B512" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="513" spans="3:3">
       <c r="C513" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="514" spans="3:3">
       <c r="C514" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="515" spans="3:3">
       <c r="C515" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="516" spans="3:3">
       <c r="C516" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="517" spans="3:3">
       <c r="C517" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="518" spans="3:3">
       <c r="C518" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" s="1" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="546" spans="2:2">
       <c r="B546" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="547" spans="2:2">
       <c r="B547" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="548" spans="3:3">
       <c r="C548" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="549" spans="4:4">
       <c r="D549" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="550" spans="4:4">
       <c r="D550" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="552" spans="4:4">
       <c r="D552" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="554" spans="4:4">
       <c r="D554" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="556" spans="2:2">
       <c r="B556" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="557" spans="3:3">
       <c r="C557" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="559" spans="3:3">
       <c r="C559" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="561" spans="3:3">
       <c r="C561" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="563" spans="2:2">
       <c r="B563" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="564" spans="3:3">
       <c r="C564" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="565" spans="3:3">
       <c r="C565" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="566" spans="3:3">
       <c r="C566" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
     <row r="568" spans="2:2">
       <c r="B568" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="569" spans="3:3">
       <c r="C569" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
     <row r="570" spans="4:4">
       <c r="D570" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="572" spans="3:3">
       <c r="C572" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row r="573" spans="4:4">
       <c r="D573" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="575" spans="2:2">
       <c r="B575" s="1" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="576" spans="2:2">
       <c r="B576" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="577" spans="3:3">
       <c r="C577" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="578" spans="4:4">
       <c r="D578" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="580" spans="3:3">
       <c r="C580" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="581" spans="4:4">
       <c r="D581" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
     </row>
     <row r="583" spans="3:3">
       <c r="C583" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="584" spans="4:4">
       <c r="D584" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="586" spans="3:3">
@@ -12062,7 +12111,7 @@
     </row>
     <row r="587" spans="4:4">
       <c r="D587" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>

--- a/Dubbo.xlsx
+++ b/Dubbo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" activeTab="6"/>
+    <workbookView windowWidth="24525" windowHeight="12240" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="工作原理" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="476">
   <si>
     <t>dubbo 工作原理</t>
   </si>
@@ -6942,13 +6942,138 @@
     </r>
   </si>
   <si>
-    <t>执行暴露的URL地址就是通过loadRegistries方法去获取注册中心的地址列表</t>
+    <r>
+      <t>执行暴露的URL地址就是通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loadRegistries方法去获取注册中心的地址列表</t>
+    </r>
   </si>
   <si>
     <t>然后开始调用doExportUrlsFor1Protocol，准备开始根据不同的协议配置去服务暴露</t>
   </si>
   <si>
-    <t>doExportUrlsFor1Protocol中主要实现根据URL中地址的数量来循环生成一个带有URL的包装器（通过动态代理得到invoker，生成）</t>
+    <r>
+      <t>如果有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多个端口需要暴露</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，我们配置多个dubbo:protocol标签就可以了，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>循环doExportUrlsFor1Protocol</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>doExportUrlsFor1Protocol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中主要实现</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>根据URL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中地址的数量来</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>循环生成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>带有URL的包装器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（通过动态代理得到invoker，生成）</t>
+    </r>
   </si>
   <si>
     <t>调用protocol中的export，传入包装器</t>
@@ -7074,10 +7199,67 @@
     </r>
   </si>
   <si>
-    <t>openServer方法中主要是通过url去调用createService，在createServer中调用bind的方法，</t>
-  </si>
-  <si>
-    <t>在bind方法中启动nettyserver</t>
+    <r>
+      <t>openServer方法中主要是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通过url去调用createService</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，在createServer中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调用bind的方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>在bind方法中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>启动nettyserver</t>
+    </r>
   </si>
   <si>
     <t>dubbo原理 -服务订阅</t>
@@ -7092,35 +7274,100 @@
     <t>ReferenceBean</t>
   </si>
   <si>
-    <t>ReferenceBean实现了FactoryBean接口，</t>
-  </si>
-  <si>
-    <t>reference标签会去spring容器中拿对象的实现，就会进入到ReferenceBean的getObject()方法。</t>
+    <r>
+      <t>ReferenceBean</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实现了FactoryBean接口，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>reference标签会去spring容器中拿对象的实现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，就会进入到</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ReferenceBean的getObject()方法。</t>
+    </r>
   </si>
   <si>
     <t>ReferenceConfig</t>
   </si>
   <si>
-    <t>执行init方法去调用动态代理refprotocol.refer方法,调用RegistryProtocol里的doRefer</t>
+    <r>
+      <t>执行init方法去</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调用动态代理refprotocol.refer方法,调用RegistryProtocol里的doRefer</t>
+    </r>
   </si>
   <si>
     <t>RegistryProtocol</t>
   </si>
   <si>
-    <t>调用subscribe方法进行订阅，然后调用DubboProtocol中的getClients</t>
+    <r>
+      <t>调用subscribe方法进行订阅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，然后调用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DubboProtocol中的getClients</t>
+    </r>
   </si>
   <si>
     <t>DubboProtocol</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>getClients中回去调用</t>
     </r>
     <r>
@@ -7160,7 +7407,20 @@
     <t>Transporters</t>
   </si>
   <si>
-    <t>接口通过SPI默认是Netty的接口实现NettyTransporter中的Connect实现方法</t>
+    <r>
+      <t>接口通过SPI默认是Netty的接口实现</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NettyTransporter中的Connect实现方法</t>
+    </r>
   </si>
   <si>
     <t>NettyTransporter</t>
@@ -7202,22 +7462,161 @@
     <t>AbstractClusterInvoker</t>
   </si>
   <si>
-    <t>1，获取可以提供服务的列表，比如配置了两个版本号，就有两个服务</t>
-  </si>
-  <si>
-    <t>2，设置负载均衡的信息</t>
-  </si>
-  <si>
-    <t>3，根据不同的负载均衡策略选择不同的doInvoke实现</t>
-  </si>
-  <si>
-    <t>4，调用currentClient.request设置并发送请求，返回ResponseFuture</t>
-  </si>
-  <si>
-    <t>最终用的Dubbo协议，所以最后用的是dubboProtocol</t>
-  </si>
-  <si>
-    <t>client 启动netty客户端，连接目标接口的服务器，发起请求</t>
+    <r>
+      <t>1，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获取可以提供服务的列表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，比如配置了</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>两个版本号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，就有两个服务</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设置负载均衡的信息</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3，根据</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不同的负载均衡策略选择不同的doInvoke</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实现</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4，调用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>currentClient.request</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设置并发送请求，返回ResponseFuture</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最终用的Dubbo协议，所以最后用的是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dubboProtocol</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>启动netty客户端，连接目标接口的服务器，发起请求</t>
+    </r>
   </si>
   <si>
     <t>dubbo 熔断，限流，降级</t>
@@ -7315,10 +7714,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -7372,7 +7771,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7394,53 +7793,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -7456,7 +7808,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7478,7 +7830,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7493,14 +7892,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -7579,7 +7978,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7591,7 +7990,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7603,7 +8008,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7615,13 +8098,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7639,85 +8140,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7729,37 +8152,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7806,23 +8205,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7830,23 +8214,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7870,6 +8239,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7878,10 +8277,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7890,16 +8289,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7908,115 +8307,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8918,15 +9317,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>437</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>436</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>285115</xdr:colOff>
+      <xdr:colOff>542290</xdr:colOff>
       <xdr:row>463</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8943,7 +9342,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9248775" y="74952225"/>
+          <a:off x="9505950" y="74866500"/>
           <a:ext cx="9552940" cy="4543425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8961,13 +9360,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>470</xdr:row>
+      <xdr:row>471</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>498</xdr:row>
+      <xdr:row>499</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8985,7 +9384,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6581775" y="80676750"/>
+          <a:off x="6581775" y="80848200"/>
           <a:ext cx="8210550" cy="4784725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9003,13 +9402,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>510</xdr:row>
+      <xdr:row>511</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>521970</xdr:colOff>
-      <xdr:row>540</xdr:row>
+      <xdr:row>541</xdr:row>
       <xdr:rowOff>168910</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9034,7 +9433,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6419850" y="87439500"/>
+          <a:off x="6419850" y="87610950"/>
           <a:ext cx="5760720" cy="5312410"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10328,10 +10727,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O587"/>
+  <dimension ref="A1:O588"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="I282" sqref="I282"/>
+    <sheetView tabSelected="1" topLeftCell="A542" workbookViewId="0">
+      <selection activeCell="L558" sqref="L558"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11755,7 +12154,7 @@
       </c>
     </row>
     <row r="450" spans="2:2">
-      <c r="B450" t="s">
+      <c r="B450" s="2" t="s">
         <v>404</v>
       </c>
     </row>
@@ -11764,148 +12163,148 @@
         <v>405</v>
       </c>
     </row>
-    <row r="453" spans="2:2">
-      <c r="B453" t="s">
+    <row r="452" spans="3:3">
+      <c r="C452" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="454" spans="3:3">
-      <c r="C454" t="s">
+    <row r="454" spans="2:2">
+      <c r="B454" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="456" spans="2:2">
-      <c r="B456" s="1" t="s">
+    <row r="455" spans="3:3">
+      <c r="C455" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="458" spans="2:2">
-      <c r="B458" s="1" t="s">
+    <row r="457" spans="2:2">
+      <c r="B457" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="459" spans="3:3">
-      <c r="C459" t="s">
+    <row r="459" spans="2:2">
+      <c r="B459" s="1" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="460" spans="3:3">
-      <c r="C460" t="s">
+      <c r="C460" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="462" spans="1:1">
-      <c r="A462" s="1" t="s">
+    <row r="461" spans="3:3">
+      <c r="C461" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="463" spans="2:2">
-      <c r="B463" s="1" t="s">
+    <row r="463" spans="1:1">
+      <c r="A463" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="464" spans="3:3">
-      <c r="C464" t="s">
+    <row r="464" spans="2:2">
+      <c r="B464" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="465" spans="2:2">
-      <c r="B465" s="1" t="s">
+    <row r="465" spans="3:3">
+      <c r="C465" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="466" spans="3:3">
-      <c r="C466" t="s">
+    <row r="466" spans="2:2">
+      <c r="B466" s="1" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="467" spans="3:3">
-      <c r="C467" t="s">
+      <c r="C467" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="469" spans="2:2">
-      <c r="B469" s="1" t="s">
+    <row r="468" spans="3:3">
+      <c r="C468" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="470" spans="3:3">
-      <c r="C470" t="s">
+    <row r="470" spans="2:2">
+      <c r="B470" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="472" spans="2:2">
-      <c r="B472" s="1" t="s">
+    <row r="471" spans="3:3">
+      <c r="C471" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="473" spans="3:3">
-      <c r="C473" t="s">
+    <row r="473" spans="2:2">
+      <c r="B473" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="475" spans="2:2">
-      <c r="B475" s="1" t="s">
+    <row r="474" spans="3:3">
+      <c r="C474" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="476" spans="3:3">
-      <c r="C476" s="2" t="s">
+    <row r="476" spans="2:2">
+      <c r="B476" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="478" spans="2:2">
-      <c r="B478" s="1" t="s">
+    <row r="477" spans="3:3">
+      <c r="C477" s="2" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="479" spans="3:3">
-      <c r="C479" t="s">
+    <row r="479" spans="2:2">
+      <c r="B479" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="481" spans="2:2">
-      <c r="B481" s="1" t="s">
+    <row r="480" spans="3:3">
+      <c r="C480" s="2" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="482" spans="3:3">
-      <c r="C482" t="s">
+    <row r="482" spans="2:2">
+      <c r="B482" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="500" spans="1:1">
-      <c r="A500" s="1" t="s">
+    <row r="483" spans="3:3">
+      <c r="C483" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="502" spans="2:2">
-      <c r="B502" s="1" t="s">
+    <row r="501" spans="1:1">
+      <c r="A501" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="503" spans="3:3">
-      <c r="C503" t="s">
+    <row r="503" spans="2:2">
+      <c r="B503" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="504" spans="2:2">
-      <c r="B504" s="1" t="s">
+    <row r="504" spans="3:3">
+      <c r="C504" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="505" spans="3:3">
-      <c r="C505" t="s">
+    <row r="505" spans="2:2">
+      <c r="B505" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="506" spans="2:2">
-      <c r="B506" s="1" t="s">
+    <row r="506" spans="3:3">
+      <c r="C506" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="507" spans="3:3">
-      <c r="C507" t="s">
+    <row r="507" spans="2:2">
+      <c r="B507" s="1" t="s">
         <v>434</v>
       </c>
     </row>
@@ -11924,63 +12323,63 @@
         <v>437</v>
       </c>
     </row>
-    <row r="512" spans="2:2">
-      <c r="B512" s="1" t="s">
+    <row r="511" spans="3:3">
+      <c r="C511" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="513" spans="3:3">
-      <c r="C513" t="s">
+    <row r="513" spans="2:2">
+      <c r="B513" s="1" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="514" spans="3:3">
-      <c r="C514" t="s">
+      <c r="C514" s="2" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="515" spans="3:3">
-      <c r="C515" t="s">
+      <c r="C515" s="2" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="516" spans="3:3">
-      <c r="C516" t="s">
+      <c r="C516" s="2" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="517" spans="3:3">
-      <c r="C517" t="s">
+      <c r="C517" s="2" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="518" spans="3:3">
-      <c r="C518" t="s">
+      <c r="C518" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="545" spans="1:1">
-      <c r="A545" s="1" t="s">
+    <row r="519" spans="3:3">
+      <c r="C519" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="546" spans="2:2">
-      <c r="B546" s="1" t="s">
+    <row r="546" spans="1:1">
+      <c r="A546" s="1" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="547" spans="2:2">
-      <c r="B547" t="s">
+      <c r="B547" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="548" spans="3:3">
-      <c r="C548" t="s">
+    <row r="548" spans="2:2">
+      <c r="B548" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="549" spans="4:4">
-      <c r="D549" t="s">
+    <row r="549" spans="3:3">
+      <c r="C549" t="s">
         <v>449</v>
       </c>
     </row>
@@ -11989,43 +12388,43 @@
         <v>450</v>
       </c>
     </row>
-    <row r="552" spans="4:4">
-      <c r="D552" t="s">
+    <row r="551" spans="4:4">
+      <c r="D551" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="554" spans="4:4">
-      <c r="D554" t="s">
+    <row r="553" spans="4:4">
+      <c r="D553" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="556" spans="2:2">
-      <c r="B556" t="s">
+    <row r="555" spans="4:4">
+      <c r="D555" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="557" spans="3:3">
-      <c r="C557" t="s">
+    <row r="557" spans="2:2">
+      <c r="B557" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="559" spans="3:3">
-      <c r="C559" t="s">
+    <row r="558" spans="3:3">
+      <c r="C558" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="561" spans="3:3">
-      <c r="C561" t="s">
+    <row r="560" spans="3:3">
+      <c r="C560" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="563" spans="2:2">
-      <c r="B563" t="s">
+    <row r="562" spans="3:3">
+      <c r="C562" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="564" spans="3:3">
-      <c r="C564" t="s">
+    <row r="564" spans="2:2">
+      <c r="B564" t="s">
         <v>458</v>
       </c>
     </row>
@@ -12039,79 +12438,84 @@
         <v>460</v>
       </c>
     </row>
-    <row r="568" spans="2:2">
-      <c r="B568" t="s">
+    <row r="567" spans="3:3">
+      <c r="C567" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="569" spans="3:3">
-      <c r="C569" t="s">
+    <row r="569" spans="2:2">
+      <c r="B569" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="570" spans="4:4">
-      <c r="D570" t="s">
+    <row r="570" spans="3:3">
+      <c r="C570" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="572" spans="3:3">
-      <c r="C572" t="s">
+    <row r="571" spans="4:4">
+      <c r="D571" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="573" spans="4:4">
-      <c r="D573" t="s">
+    <row r="573" spans="3:3">
+      <c r="C573" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="575" spans="2:2">
-      <c r="B575" s="1" t="s">
+    <row r="574" spans="4:4">
+      <c r="D574" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="576" spans="2:2">
-      <c r="B576" t="s">
+      <c r="B576" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="577" spans="3:3">
-      <c r="C577" t="s">
+    <row r="577" spans="2:2">
+      <c r="B577" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="578" spans="4:4">
-      <c r="D578" t="s">
+    <row r="578" spans="3:3">
+      <c r="C578" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="580" spans="3:3">
-      <c r="C580" t="s">
+    <row r="579" spans="4:4">
+      <c r="D579" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="581" spans="4:4">
-      <c r="D581" t="s">
+    <row r="581" spans="3:3">
+      <c r="C581" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="583" spans="3:3">
-      <c r="C583" t="s">
+    <row r="582" spans="4:4">
+      <c r="D582" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="584" spans="4:4">
-      <c r="D584" t="s">
+    <row r="584" spans="3:3">
+      <c r="C584" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="586" spans="3:3">
-      <c r="C586" t="s">
+    <row r="585" spans="4:4">
+      <c r="D585" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="587" spans="3:3">
+      <c r="C587" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="587" spans="4:4">
-      <c r="D587" t="s">
-        <v>474</v>
+    <row r="588" spans="4:4">
+      <c r="D588" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>
